--- a/Document/서버 설정.xlsx
+++ b/Document/서버 설정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HavePoop\Desktop\Study\Core\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91980EA-D24A-48C8-8AB0-75A88C1BACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3838E7AB-3290-4D2C-B3AF-2E8ADFA7509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3770" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>WorldID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ServerID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 ~ 60: 게임 서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1 ~ 255</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ServerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1 ~ 30: 로그인 서버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30 ~ 60: 게임 서버</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,38 +381,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
